--- a/03-Databases/Analyse/07-Aeroport/Aeroport.xlsx
+++ b/03-Databases/Analyse/07-Aeroport/Aeroport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbreton\Documents\Git\DWWM_2409_BF\03-Databases\Analyse\07-Aeroport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC23CB89-CE57-4128-A8F0-613E71F7A079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C73A21-94AB-4BC1-857A-B3569BC93CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8AF568B0-F3E2-4154-A72E-B655F0042F6B}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>On pose une question pour chaque colonne de donnée :  Pour une valeur de cette donnée, existe-t-il une seule valeur de la donnée située en ligne ?</t>
   </si>
   <si>
-    <t>Exemple : Est-ce qu'il existe un seul client_id pour client_name ?</t>
-  </si>
-  <si>
     <t>/</t>
   </si>
   <si>
@@ -113,22 +110,22 @@
     <t>pilote_telephone</t>
   </si>
   <si>
-    <t>pilote_habilitation</t>
-  </si>
-  <si>
     <t>mecanicien_habilitation</t>
   </si>
   <si>
     <t>proprietaire_siret</t>
   </si>
   <si>
-    <t>Type_id</t>
-  </si>
-  <si>
-    <t>Type_puissance</t>
-  </si>
-  <si>
-    <t>Type_</t>
+    <t>pilote_brevet</t>
+  </si>
+  <si>
+    <t>type_avion_id</t>
+  </si>
+  <si>
+    <t>type_avion_puissance</t>
+  </si>
+  <si>
+    <t>type_avion_nombres_places</t>
   </si>
 </sst>
 </file>
@@ -206,17 +203,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,12 +269,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{92D484F0-9803-4EFF-AA10-F1AEFF55051A}" name="Tableau1" displayName="Tableau1" ref="A3:F31" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A3:F31" xr:uid="{92D484F0-9803-4EFF-AA10-F1AEFF55051A}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{92D484F0-9803-4EFF-AA10-F1AEFF55051A}" name="Tableau1" displayName="Tableau1" ref="A3:G33" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A3:G33" xr:uid="{92D484F0-9803-4EFF-AA10-F1AEFF55051A}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9F1A6ACB-DC29-49AE-904C-068B00FE6F11}" name="/" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{59A18575-4C1B-41A8-9133-5DB53837A514}" name="proprietaire_id"/>
     <tableColumn id="7" xr3:uid="{448C6A90-F76B-4851-83ED-14C1152BDE76}" name="avion_id"/>
+    <tableColumn id="4" xr3:uid="{C673239C-C3C1-4339-9011-FD0E799644FE}" name="type_avion_id"/>
     <tableColumn id="9" xr3:uid="{041AB826-57C8-4B5D-A08E-37BBA03DF585}" name="intervention_id"/>
     <tableColumn id="12" xr3:uid="{7C263358-91CD-460F-99FF-A4CDB8CDD98F}" name="mecanicien_id"/>
     <tableColumn id="24" xr3:uid="{C7677F16-05B1-4F0D-9602-E21A9E055CF2}" name="pilote_id"/>
@@ -603,23 +601,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D457FF59-1BED-4599-891A-7000D9BED55C}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -628,255 +627,273 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>30</v>
+      <c r="G33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="H1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
